--- a/data/feedback-benchmark/model_analysis/gpt-4o-2024-08-06/per_error_score.xlsx
+++ b/data/feedback-benchmark/model_analysis/gpt-4o-2024-08-06/per_error_score.xlsx
@@ -8,35 +8,32 @@
   </bookViews>
   <sheets>
     <sheet name="gpt-4o-2024-05-13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="yi-large" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="internlm2_5-20b-chat" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="glm-4-0520" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="gpt-4o-mini-2024-07-18" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="gpt-4-turbo-2024-04-09" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="moonshot-v1-32k" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="claude-3-5-sonnet-20240620" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Yi-1.5-9B-Chat" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="ERNIE-4.0-8K-0329" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Mistral-7B-Instruct-v0.3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="gemma-2-9b-it" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="glm-4-9b-chat" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Qwen2.5-72B-Instruct" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Yi-1.5-9B-Chat-16K" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="internlm2_5-20b-chat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="glm-4-0520" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="gpt-4o-mini-2024-07-18" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="moonshot-v1-32k" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="claude-3-5-sonnet-20240620" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="yi-lightning" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Yi-1.5-9B-Chat" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ERNIE-4.0-8K-0329" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Ministral-8B-Instruct-2410" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="gemma-2-9b-it" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mistral-Large-Instruct-2411" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="gpt-4o-2024-11-20" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="glm-4-9b-chat" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Qwen2.5-72B-Instruct" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Yi-1.5-34B-Chat" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Meta-Llama-3.1-8B-Instruct" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="gemma-2-27b-it" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Qwen2-72B-Instruct" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Phi-3-small-8k-instruct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Mistral-Large-Instruct-2407" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="DeepSeek-V2.5" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="qwen-max-0919" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Qwen2-7B-Instruct" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="internlm2_5-7b-chat" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Qwen2.5-7B-Instruct" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="DeepSeek-Coder-V2-Lite-Instruct" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Meta-Llama-3.1-70B-Instruct" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Yi-1.5-34B-Chat-16K" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Phi-3-medium-4k-instruct" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="phi-4" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="gemma-2-27b-it" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="qwen-max-0919" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="internlm3-8b-instruct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="DeepSeek-V3" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="internlm2_5-7b-chat" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="claude-3-5-sonnet-20241022" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Qwen2.5-7B-Instruct" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Meta-Llama-3.1-70B-Instruct" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Phi-3-medium-4k-instruct" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -491,11 +488,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.93</v>
+        <v>59.72</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>63.93</v>
+        <v>59.72</v>
       </c>
     </row>
     <row r="3">
@@ -505,11 +502,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.23</v>
+        <v>59.6</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>67.23</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="4">
@@ -519,11 +516,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.78</v>
+        <v>58.52</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>61.78</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="5">
@@ -533,11 +530,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.98999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>72.98999999999999</v>
+        <v>70.98999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -547,11 +544,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.78</v>
+        <v>79.88</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>67.78</v>
+        <v>79.88</v>
       </c>
     </row>
   </sheetData>
@@ -602,11 +599,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.20999999999999</v>
+        <v>41.36</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>64.20999999999999</v>
+        <v>41.36</v>
       </c>
     </row>
     <row r="3">
@@ -616,11 +613,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.81999999999999</v>
+        <v>51.41</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>64.81999999999999</v>
+        <v>51.41</v>
       </c>
     </row>
     <row r="4">
@@ -630,11 +627,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.06</v>
+        <v>43.01</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>58.06</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="5">
@@ -644,11 +641,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66.67</v>
+        <v>45.53</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>66.67</v>
+        <v>45.53</v>
       </c>
     </row>
     <row r="6">
@@ -658,11 +655,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.09</v>
+        <v>63.74</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>65.09</v>
+        <v>63.74</v>
       </c>
     </row>
   </sheetData>
@@ -713,11 +710,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.12</v>
+        <v>31.16</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>37.12</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="3">
@@ -727,11 +724,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.77</v>
+        <v>45</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>46.77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -741,11 +738,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.53</v>
+        <v>30.34</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>28.53</v>
+        <v>30.34</v>
       </c>
     </row>
     <row r="5">
@@ -755,11 +752,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.01</v>
+        <v>37.37</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>41.01</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="6">
@@ -769,11 +766,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.45</v>
+        <v>52.72</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>44.45</v>
+        <v>52.72</v>
       </c>
     </row>
   </sheetData>
@@ -824,11 +821,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.55</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>45.55</v>
+        <v>66.18000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -838,11 +835,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.79</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>53.79</v>
+        <v>70.81999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -852,11 +849,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.62</v>
+        <v>60.69</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>42.62</v>
+        <v>60.69</v>
       </c>
     </row>
     <row r="5">
@@ -866,11 +863,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.99</v>
+        <v>65.56</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>47.99</v>
+        <v>65.56</v>
       </c>
     </row>
     <row r="6">
@@ -880,11 +877,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.97</v>
+        <v>76.41</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>49.97</v>
+        <v>76.41</v>
       </c>
     </row>
   </sheetData>
@@ -935,11 +932,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.99</v>
+        <v>61.44</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>51.99</v>
+        <v>61.44</v>
       </c>
     </row>
     <row r="3">
@@ -949,11 +946,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.31</v>
+        <v>72.03</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>58.31</v>
+        <v>72.03</v>
       </c>
     </row>
     <row r="4">
@@ -963,11 +960,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.89</v>
+        <v>59.38</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>42.89</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="5">
@@ -977,11 +974,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.89</v>
+        <v>71.03</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>61.89</v>
+        <v>71.03</v>
       </c>
     </row>
     <row r="6">
@@ -991,11 +988,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.3</v>
+        <v>62.47</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>63.3</v>
+        <v>62.47</v>
       </c>
     </row>
   </sheetData>
@@ -1046,11 +1043,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.82</v>
+        <v>55.92</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>57.82</v>
+        <v>55.92</v>
       </c>
     </row>
     <row r="3">
@@ -1060,11 +1057,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.20999999999999</v>
+        <v>55.84</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>67.20999999999999</v>
+        <v>55.84</v>
       </c>
     </row>
     <row r="4">
@@ -1074,11 +1071,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.79</v>
+        <v>39.51</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>60.79</v>
+        <v>39.51</v>
       </c>
     </row>
     <row r="5">
@@ -1088,11 +1085,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.94</v>
+        <v>59.12</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>70.94</v>
+        <v>59.12</v>
       </c>
     </row>
     <row r="6">
@@ -1102,11 +1099,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.01</v>
+        <v>64.62</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>62.01</v>
+        <v>64.62</v>
       </c>
     </row>
   </sheetData>
@@ -1157,11 +1154,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.94</v>
+        <v>59.01</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>39.94</v>
+        <v>59.01</v>
       </c>
     </row>
     <row r="3">
@@ -1171,11 +1168,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.61</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>50.61</v>
+        <v>69.15000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1185,11 +1182,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.48</v>
+        <v>59.34</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>28.48</v>
+        <v>59.34</v>
       </c>
     </row>
     <row r="5">
@@ -1199,11 +1196,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.33</v>
+        <v>68.17</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>47.33</v>
+        <v>68.17</v>
       </c>
     </row>
     <row r="6">
@@ -1213,11 +1210,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.98</v>
+        <v>72.08</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>49.98</v>
+        <v>72.08</v>
       </c>
     </row>
   </sheetData>
@@ -1268,11 +1265,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.2</v>
+        <v>40.54</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>44.2</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="3">
@@ -1282,11 +1279,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.29</v>
+        <v>46.58</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>56.29</v>
+        <v>46.58</v>
       </c>
     </row>
     <row r="4">
@@ -1296,11 +1293,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.65</v>
+        <v>39.18</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>39.65</v>
+        <v>39.18</v>
       </c>
     </row>
     <row r="5">
@@ -1310,11 +1307,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.48</v>
+        <v>43.45</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>52.48</v>
+        <v>43.45</v>
       </c>
     </row>
     <row r="6">
@@ -1324,11 +1321,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.45</v>
+        <v>50.43</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>50.45</v>
+        <v>50.43</v>
       </c>
     </row>
   </sheetData>
@@ -1379,11 +1376,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.33</v>
+        <v>42.7</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>41.33</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="3">
@@ -1393,11 +1390,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.09</v>
+        <v>47.47</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>47.09</v>
+        <v>47.47</v>
       </c>
     </row>
     <row r="4">
@@ -1407,11 +1404,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.69</v>
+        <v>33.12</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>33.69</v>
+        <v>33.12</v>
       </c>
     </row>
     <row r="5">
@@ -1421,11 +1418,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.09</v>
+        <v>48.87</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>46.09</v>
+        <v>48.87</v>
       </c>
     </row>
     <row r="6">
@@ -1435,11 +1432,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.87</v>
+        <v>57.07</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>48.87</v>
+        <v>57.07</v>
       </c>
     </row>
   </sheetData>
@@ -1490,11 +1487,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.51</v>
+        <v>51.45</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>60.51</v>
+        <v>51.45</v>
       </c>
     </row>
     <row r="3">
@@ -1504,11 +1501,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.4</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>58.4</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1518,11 +1515,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.02</v>
+        <v>53.27</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>45.02</v>
+        <v>53.27</v>
       </c>
     </row>
     <row r="5">
@@ -1532,11 +1529,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.25</v>
+        <v>58.76</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>51.25</v>
+        <v>58.76</v>
       </c>
     </row>
     <row r="6">
@@ -1546,11 +1543,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.88</v>
+        <v>54.73</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>53.88</v>
+        <v>54.73</v>
       </c>
     </row>
   </sheetData>
@@ -1601,11 +1598,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.06</v>
+        <v>42.53</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>57.06</v>
+        <v>42.53</v>
       </c>
     </row>
     <row r="3">
@@ -1615,11 +1612,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.3</v>
+        <v>50.5</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>65.3</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="4">
@@ -1629,11 +1626,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.99</v>
+        <v>36.3</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>51.99</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="5">
@@ -1643,11 +1640,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.4</v>
+        <v>41.46</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>63.4</v>
+        <v>41.46</v>
       </c>
     </row>
     <row r="6">
@@ -1657,11 +1654,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.7</v>
+        <v>55.92</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>60.7</v>
+        <v>55.92</v>
       </c>
     </row>
   </sheetData>
@@ -1712,11 +1709,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.64</v>
+        <v>52.26</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>64.64</v>
+        <v>52.26</v>
       </c>
     </row>
     <row r="3">
@@ -1726,11 +1723,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.17</v>
+        <v>51.11</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>66.17</v>
+        <v>51.11</v>
       </c>
     </row>
     <row r="4">
@@ -1740,11 +1737,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.49</v>
+        <v>39.27</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>56.49</v>
+        <v>39.27</v>
       </c>
     </row>
     <row r="5">
@@ -1754,11 +1751,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.2</v>
+        <v>50.94</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>61.2</v>
+        <v>50.94</v>
       </c>
     </row>
     <row r="6">
@@ -1768,11 +1765,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.40000000000001</v>
+        <v>65.03</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>65.40000000000001</v>
+        <v>65.03</v>
       </c>
     </row>
   </sheetData>
@@ -1823,11 +1820,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.62</v>
+        <v>70.25</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>16.62</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="3">
@@ -1837,11 +1834,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.13</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>36.13</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1851,11 +1848,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.71</v>
+        <v>57.74</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>16.71</v>
+        <v>57.74</v>
       </c>
     </row>
     <row r="5">
@@ -1865,11 +1862,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.73</v>
+        <v>70.36</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>33.73</v>
+        <v>70.36</v>
       </c>
     </row>
     <row r="6">
@@ -1879,11 +1876,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.61</v>
+        <v>71.63</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>46.61</v>
+        <v>71.63</v>
       </c>
     </row>
   </sheetData>
@@ -1934,11 +1931,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.33</v>
+        <v>40.46</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>60.33</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="3">
@@ -1948,11 +1945,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.37</v>
+        <v>55.18</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>69.37</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="4">
@@ -1962,11 +1959,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.34</v>
+        <v>44.7</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>60.34</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="5">
@@ -1976,11 +1973,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.15000000000001</v>
+        <v>48.91</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>65.15000000000001</v>
+        <v>48.91</v>
       </c>
     </row>
     <row r="6">
@@ -1990,11 +1987,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.34</v>
+        <v>60.44</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>68.34</v>
+        <v>60.44</v>
       </c>
     </row>
   </sheetData>
@@ -2045,11 +2042,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.31999999999999</v>
+        <v>74.03</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>66.31999999999999</v>
+        <v>74.03</v>
       </c>
     </row>
     <row r="3">
@@ -2059,11 +2056,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.72</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>65.72</v>
+        <v>70.26000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2073,11 +2070,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.15</v>
+        <v>66.59</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>58.15</v>
+        <v>66.59</v>
       </c>
     </row>
     <row r="5">
@@ -2087,11 +2084,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.40000000000001</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>71.40000000000001</v>
+        <v>70.98999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -2101,11 +2098,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.95</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>61.95</v>
+        <v>72.65000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2156,11 +2153,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.2</v>
+        <v>46.57</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>69.2</v>
+        <v>46.57</v>
       </c>
     </row>
     <row r="3">
@@ -2170,11 +2167,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.54000000000001</v>
+        <v>48.29</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>70.54000000000001</v>
+        <v>48.29</v>
       </c>
     </row>
     <row r="4">
@@ -2184,11 +2181,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.08</v>
+        <v>33.37</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>64.08</v>
+        <v>33.37</v>
       </c>
     </row>
     <row r="5">
@@ -2198,11 +2195,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.45999999999999</v>
+        <v>46.72</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>76.45999999999999</v>
+        <v>46.72</v>
       </c>
     </row>
     <row r="6">
@@ -2212,11 +2209,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.73</v>
+        <v>51.46</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>67.73</v>
+        <v>51.46</v>
       </c>
     </row>
   </sheetData>
@@ -2267,11 +2264,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.88</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>37.88</v>
+        <v>67.06999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2281,11 +2278,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.3</v>
+        <v>73.27</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>55.3</v>
+        <v>73.27</v>
       </c>
     </row>
     <row r="4">
@@ -2295,11 +2292,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.3</v>
+        <v>66.53</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>32.3</v>
+        <v>66.53</v>
       </c>
     </row>
     <row r="5">
@@ -2309,11 +2306,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.14</v>
+        <v>67.52</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>52.14</v>
+        <v>67.52</v>
       </c>
     </row>
     <row r="6">
@@ -2323,11 +2320,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.31</v>
+        <v>74.08</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>46.31</v>
+        <v>74.08</v>
       </c>
     </row>
   </sheetData>
@@ -2378,11 +2375,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.39</v>
+        <v>54.45</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>47.39</v>
+        <v>54.45</v>
       </c>
     </row>
     <row r="3">
@@ -2392,11 +2389,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.15</v>
+        <v>59.7</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>54.15</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="4">
@@ -2406,11 +2403,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.84</v>
+        <v>46.35</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>31.84</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="5">
@@ -2420,11 +2417,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.13</v>
+        <v>54.15</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>50.13</v>
+        <v>54.15</v>
       </c>
     </row>
     <row r="6">
@@ -2434,11 +2431,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.63</v>
+        <v>62.41</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>53.63</v>
+        <v>62.41</v>
       </c>
     </row>
   </sheetData>
@@ -2489,11 +2486,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.27</v>
+        <v>51.65</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>49.27</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="3">
@@ -2503,11 +2500,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.36</v>
+        <v>55.92</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>57.36</v>
+        <v>55.92</v>
       </c>
     </row>
     <row r="4">
@@ -2517,11 +2514,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.09</v>
+        <v>44.8</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>43.09</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="5">
@@ -2531,11 +2528,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.65</v>
+        <v>44.93</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>57.65</v>
+        <v>44.93</v>
       </c>
     </row>
     <row r="6">
@@ -2545,11 +2542,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.76</v>
+        <v>47.16</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>51.76</v>
+        <v>47.16</v>
       </c>
     </row>
   </sheetData>
@@ -2600,11 +2597,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.9</v>
+        <v>25.65</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>45.9</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="3">
@@ -2614,11 +2611,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.65</v>
+        <v>40.34</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>55.65</v>
+        <v>40.34</v>
       </c>
     </row>
     <row r="4">
@@ -2628,11 +2625,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.49</v>
+        <v>29.62</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>40.49</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="5">
@@ -2642,11 +2639,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.58</v>
+        <v>38.07</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>53.58</v>
+        <v>38.07</v>
       </c>
     </row>
     <row r="6">
@@ -2656,233 +2653,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.94</v>
+        <v>45.31</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>57.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>error_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>correct_avg_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>antisyco_avg_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>all_avg_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Factual Error</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>49.38</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>49.38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Incomplete Answer</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>64.19</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>64.19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Logical Error</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>47.99</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>47.99</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not Following Instructions</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>55.07</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>55.07</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Unprofessional Answer</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>54.58</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>54.58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>error_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>correct_avg_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>antisyco_avg_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>all_avg_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Factual Error</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>36.83</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>36.83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Incomplete Answer</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Logical Error</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>36.29</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>36.29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not Following Instructions</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>51.34</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>51.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Unprofessional Answer</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>46.54</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>46.54</v>
+        <v>45.31</v>
       </c>
     </row>
   </sheetData>
@@ -2933,11 +2708,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.63</v>
+        <v>58.21</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>50.63</v>
+        <v>58.21</v>
       </c>
     </row>
     <row r="3">
@@ -2947,11 +2722,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.64</v>
+        <v>58.62</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>56.64</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="4">
@@ -2961,11 +2736,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.29</v>
+        <v>49.32</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>39.29</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="5">
@@ -2975,11 +2750,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59.63</v>
+        <v>61.62</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>59.63</v>
+        <v>61.62</v>
       </c>
     </row>
     <row r="6">
@@ -2989,122 +2764,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.14</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>60.14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>error_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>correct_avg_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>antisyco_avg_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>all_avg_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Factual Error</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>28.58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Incomplete Answer</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>41.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Logical Error</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>20.16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not Following Instructions</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>42.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Unprofessional Answer</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>48.68</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>48.68</v>
+        <v>65.48999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3155,11 +2819,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.99</v>
+        <v>57.59</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>63.99</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="3">
@@ -3169,11 +2833,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.88</v>
+        <v>63.28</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>65.88</v>
+        <v>63.28</v>
       </c>
     </row>
     <row r="4">
@@ -3183,11 +2847,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.43</v>
+        <v>52.01</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>57.43</v>
+        <v>52.01</v>
       </c>
     </row>
     <row r="5">
@@ -3197,11 +2861,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.67</v>
+        <v>65.94</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>67.67</v>
+        <v>65.94</v>
       </c>
     </row>
     <row r="6">
@@ -3211,11 +2875,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.8</v>
+        <v>62.08</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>64.8</v>
+        <v>62.08</v>
       </c>
     </row>
   </sheetData>
@@ -3266,11 +2930,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.5</v>
+        <v>59.5</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>63.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="3">
@@ -3280,11 +2944,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.84</v>
+        <v>61.4</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>66.84</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="4">
@@ -3294,11 +2958,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57</v>
+        <v>44.7</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="5">
@@ -3308,11 +2972,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.88</v>
+        <v>58.94</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>68.88</v>
+        <v>58.94</v>
       </c>
     </row>
     <row r="6">
@@ -3322,11 +2986,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.91</v>
+        <v>63.49</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>67.91</v>
+        <v>63.49</v>
       </c>
     </row>
   </sheetData>
@@ -3377,11 +3041,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.41</v>
+        <v>70.55</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>68.41</v>
+        <v>70.55</v>
       </c>
     </row>
     <row r="3">
@@ -3391,11 +3055,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>65.45999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3405,11 +3069,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.39</v>
+        <v>60.6</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>63.39</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="5">
@@ -3419,11 +3083,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.26000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>64.26000000000001</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="6">
@@ -3433,11 +3097,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.42</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>68.42</v>
+        <v>67.81999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3488,11 +3152,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.5</v>
+        <v>62.14</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>63.5</v>
+        <v>62.14</v>
       </c>
     </row>
     <row r="3">
@@ -3502,11 +3166,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.41</v>
+        <v>69.55</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>62.41</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="4">
@@ -3516,11 +3180,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.93</v>
+        <v>60.4</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>42.93</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="5">
@@ -3530,11 +3194,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.41</v>
+        <v>67.23</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>61.41</v>
+        <v>67.23</v>
       </c>
     </row>
     <row r="6">
@@ -3544,11 +3208,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.92</v>
+        <v>75.28</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>63.92</v>
+        <v>75.28</v>
       </c>
     </row>
   </sheetData>
@@ -3599,11 +3263,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.39</v>
+        <v>35.01</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>71.39</v>
+        <v>35.01</v>
       </c>
     </row>
     <row r="3">
@@ -3613,11 +3277,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.95999999999999</v>
+        <v>39.26</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>72.95999999999999</v>
+        <v>39.26</v>
       </c>
     </row>
     <row r="4">
@@ -3627,11 +3291,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.13</v>
+        <v>30.09</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>68.13</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="5">
@@ -3641,11 +3305,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.44</v>
+        <v>38.48</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>70.44</v>
+        <v>38.48</v>
       </c>
     </row>
     <row r="6">
@@ -3655,11 +3319,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.72</v>
+        <v>42</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>73.72</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3710,11 +3374,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.24</v>
+        <v>54.57</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>34.24</v>
+        <v>54.57</v>
       </c>
     </row>
     <row r="3">
@@ -3724,11 +3388,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.15</v>
+        <v>61.24</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>51.15</v>
+        <v>61.24</v>
       </c>
     </row>
     <row r="4">
@@ -3738,11 +3402,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.12</v>
+        <v>55.73</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>32.12</v>
+        <v>55.73</v>
       </c>
     </row>
     <row r="5">
@@ -3752,11 +3416,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.41</v>
+        <v>64.61</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>49.41</v>
+        <v>64.61</v>
       </c>
     </row>
     <row r="6">
@@ -3766,11 +3430,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.17</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>50.17</v>
+        <v>69.18000000000001</v>
       </c>
     </row>
   </sheetData>
